--- a/Raw_data_cleaned/Burley/Burley24.xlsx
+++ b/Raw_data_cleaned/Burley/Burley24.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E8190E-A76D-BB47-BC4B-38290977CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8CD515A-8C23-4B55-966D-530117BFEF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8360" yWindow="2250" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE415"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:BE415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6.3400000000000001E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>285.07993599506739</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.2669999999999999E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>279.20270905945904</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.9009999999999999E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>274.16376410308874</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3.8019999999999998E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>261.67282089470297</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4.4359999999999998E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>258.06932454948992</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5.7029999999999997E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>251.44744103610265</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8.2380000000000005E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>239.92345860733795</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8.8719999999999997E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>237.32064473003746</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9.5060000000000006E-3</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>234.81065198965689</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.1407E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>227.77400674569313</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.2674E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>223.43812197624371</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3.2953000000000003E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>175.7294254903141</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4.9430000000000002E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>152.1027357649333</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5.3865999999999997E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>146.97464787542543</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5.7667999999999997E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>142.8919218192452</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5.8302E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>142.23674406549517</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>6.0203E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>140.31353675459735</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6.0837000000000002E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>139.68549422791131</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6.1469999999999997E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>139.06491550732619</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>6.7173999999999998E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>133.74683166773181</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6.8441000000000002E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>132.62813225229257</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7.6678999999999997E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>125.84223447333333</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7.7947000000000002E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>124.8665558169691</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>7.8579999999999997E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>124.3858208588786</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>7.9214000000000007E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>123.90847391020294</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>7.9848000000000002E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>123.43521820455378</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>9.6958000000000003E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>112.0203500152974</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0.102662</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>108.71050056520721</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.10963199999999999</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>104.94257238241572</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.11533599999999999</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>102.06164674540982</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.11913799999999999</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>100.23342369730358</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.123574</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>98.186455118712104</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.13117899999999999</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>94.875453937054189</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0.13308</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>94.084189186619454</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0.133714</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>93.823366446720854</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.13434699999999999</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>93.56446336268786</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0.13624800000000001</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>92.795853846624453</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>0.136882</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>92.542444989006071</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.137516</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>92.290478571571498</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0.14512</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>89.376183519207117</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>0.15399199999999999</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>86.207949534794423</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0.15779499999999999</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>84.919575770856028</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.163498</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>83.059767031973664</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.164766</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>82.657502065513768</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.16666700000000001</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>82.061800551144842</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.168568</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>81.474765976638849</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.17427100000000001</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>79.763670872889492</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.17680599999999999</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>79.026194146762833</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.17743999999999999</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>78.843897408336915</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0.183143</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>77.241352483585956</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.18441099999999999</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>76.893891811051091</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.19391600000000001</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>74.385563760207347</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.19455</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>74.224043233432596</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.19961999999999999</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>72.957008396456573</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.21292800000000001</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>69.825906941967091</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.229404</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>66.296186699513996</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.23067199999999999</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>66.038860059451451</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.232573</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>65.656669848161485</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>0.233207</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>65.530154200027638</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>0.237009</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>64.781213019697972</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>0.23764299999999999</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>64.657924761149289</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>0.240811</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>64.048569057349155</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.24144499999999999</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>63.927943007524071</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.24334600000000001</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>63.568852422349131</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.24588099999999999</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>63.095970446677363</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.24714800000000001</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>62.862135788870496</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.247782</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>62.745746615903762</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.25285200000000002</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>61.829582734973705</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.25475300000000001</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>61.492600332075945</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0.25665399999999999</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>61.159089874137784</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>0.259189</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>60.71965432565117</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.26108999999999999</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>60.394026164733909</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.26235700000000001</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>60.178826462820972</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.266793</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>59.436652502879106</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.26742700000000003</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>59.331987633978848</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.26996199999999998</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>58.916937357166553</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.270596</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>58.81398615887246</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.27186300000000002</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>58.609255395999305</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.27439799999999998</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>58.203621879713261</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.27629900000000002</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>57.902873317409849</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.27693299999999998</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>57.803217020317568</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.27756700000000001</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>57.703881059011202</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.2782</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>57.605019716660827</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.27883400000000003</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>57.506319003554289</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.28010099999999999</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>57.310016718227367</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.28073500000000001</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>57.212257004138827</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.282003</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>57.017667922951723</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.28390399999999999</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>56.728238210492997</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.28453699999999998</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>56.632469488298703</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.286439</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>56.346510777191433</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.28707199999999999</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>56.251936058717881</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.29087499999999999</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>55.689887852033429</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.29150799999999999</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>55.597346027549854</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.29214200000000001</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>55.504943064398269</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.29277599999999998</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>55.412823982051158</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.294043</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>55.22957608842389</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.29594399999999998</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>54.956724128025662</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.29657800000000001</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>54.866278550541445</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.29784500000000003</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>54.686350649418692</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.301014</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>54.241046022579745</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.30228100000000002</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>54.064871736729849</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.30291499999999999</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>53.97710954068679</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.30418299999999998</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>53.802368253033599</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.30545</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>53.628799446642027</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.30798500000000001</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>53.284590735089772</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.30861899999999998</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>53.199136726806351</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.31178699999999998</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>52.775866974940008</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.312421</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>52.691898106559101</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.313054</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>52.608304746791681</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.31432199999999999</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>52.441579951967263</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.31495600000000001</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>52.35857853453907</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.31622299999999998</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>52.193422107130878</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.31748999999999999</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>52.02921214042933</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.31812400000000002</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>51.94739494540574</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.31939200000000001</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>51.784460752677383</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.320025</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>51.703469398537671</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.32192599999999999</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>51.461616943258953</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.32256000000000001</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>51.381413183572995</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.323828</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>51.221683973612848</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.324461</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>51.142281753096107</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.32572899999999999</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>50.983895301181299</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.32762999999999998</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>50.748097278150432</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.328264</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>50.669894655898609</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.331432</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>50.282367785941297</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.335868</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>49.748633181719107</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.33650200000000002</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>49.673183202222098</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.33713599999999999</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>49.597938642065593</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.340304</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>49.224999988140759</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.342839</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>48.930183239835038</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.34600799999999998</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>48.566051023103292</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.34854200000000002</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>48.278350478954728</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.34917599999999999</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>48.206843713936316</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.35297800000000001</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>47.781957437501859</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.35678100000000001</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>47.363575793395619</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.35741400000000001</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>47.294568086811047</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.35931600000000002</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>47.088286377897532</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.36882100000000001</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>46.080835128651913</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.374525</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>45.494324360449163</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.37896099999999999</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>45.047182357138979</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.38973400000000002</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>43.992637778586776</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.39036799999999999</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>43.931916968474432</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.39417000000000002</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>43.570814004947302</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.39607100000000001</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>43.39218599179587</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.39797199999999999</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>43.214821047779466</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.39923999999999998</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>43.097210768472451</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.400507</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>42.980244097317424</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.40177400000000002</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>42.863823969165637</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.40240799999999999</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>42.805771861704905</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.404943</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>42.575002365734441</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.42142000000000002</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>41.12564571026482</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.423954</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>40.910216960381057</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.42585600000000001</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>40.749774974819076</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.43155900000000003</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>40.275043777605603</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.43282599999999999</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>40.170845978375375</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.435361</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>39.963730502108582</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.43662899999999999</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>39.860807264611033</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.43726199999999998</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>39.809593987048764</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.43916300000000003</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>39.656456959938907</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.44043100000000002</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>39.554862507114997</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.44106499999999998</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>39.504229382779066</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.44359900000000002</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>39.302940394390916</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.44423299999999999</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>39.252847745696386</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.44803500000000002</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>38.954683363404776</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.45057000000000003</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>38.757982135137183</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.45120399999999999</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>38.70904698953732</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.45183800000000002</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>38.660215005164758</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.45247100000000001</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>38.611562616069463</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.45310499999999998</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>38.5629357591991</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.45437300000000003</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>38.4659880991316</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.45500600000000002</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>38.417742753971972</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.45563999999999999</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>38.369522227452741</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.45627400000000001</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>38.321402480783739</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.45944200000000002</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>38.082453870796371</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.46007599999999998</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>38.034931527801191</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.46071000000000001</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>37.987507658259382</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.461343</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>37.940256507616823</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.46197700000000003</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>37.893028461336634</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.46324500000000002</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>37.798864571281122</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.46387800000000001</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>37.752002046482183</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.46451199999999998</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>37.70516196704024</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.465146</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>37.658418126648527</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.465779</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>37.611843713460402</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.46641300000000002</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>37.565291261113273</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.46704699999999999</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>37.51883411161446</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.47148299999999999</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>37.196421053364304</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.47211700000000001</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>37.150715009104758</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.47908699999999999</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>36.654274998273124</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.48035499999999998</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>36.565133824233648</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.48225600000000002</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>36.432157142905943</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.48288999999999999</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>36.387984500283792</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.48479100000000003</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>36.256060796448516</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.48795899999999998</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>36.037942675749214</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.49112800000000001</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>35.821891966463099</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.49873299999999998</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>35.311931265392083</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.50253499999999995</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>35.06138887382815</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.50633700000000004</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>34.813711469670828</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.51394200000000001</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>34.326683062073819</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.51964500000000002</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>33.968606039345254</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.52217999999999998</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>33.811357923706652</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.522814</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>33.772212400773213</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.523447</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>33.733200851778953</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.52408100000000002</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>33.694199805642533</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.52471500000000004</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>33.655270737757156</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.52915100000000004</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>33.384886207084563</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.52978499999999995</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>33.346525238949653</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.53168599999999999</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>33.231922334971877</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.53422099999999995</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>33.080069745022577</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.53485400000000005</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>33.042323419882273</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.53612199999999999</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>32.96691674683796</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.53738900000000001</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>32.891841710119287</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.54309300000000005</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>32.557183902258117</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.54372600000000004</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>32.520377262850396</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.54689500000000002</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>32.337094419306077</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.54816200000000004</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>32.264271067450615</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.56590600000000002</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>31.270840513156813</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.57224299999999995</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>30.927581170813944</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.57604599999999995</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>30.72438066356063</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.58238299999999998</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>30.390339803255245</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.59759200000000001</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>29.611055545792418</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.60582999999999998</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>29.201639081544769</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.606464</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>29.170487604462267</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.60773100000000002</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>29.108384730032647</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.61280100000000004</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>28.861869937648791</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.61343499999999995</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>28.831265867219415</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.61977199999999999</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>28.528043819582244</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.62800999999999996</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>28.14098290347021</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.629911</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>28.052783627422535</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.63181200000000004</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>27.96499734405127</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.63561500000000004</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>27.790605934510985</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.63878299999999999</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>27.646568498413984</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.64131800000000005</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>27.532110048811312</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.64321899999999999</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>27.446738898202021</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.64385300000000001</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>27.418354245804842</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.64512000000000003</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>27.361760007644932</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.64638799999999996</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>27.305294288274951</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.65019000000000005</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>27.137016435098509</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.65399200000000002</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>26.970266477584865</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.65969599999999995</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>26.722915631005854</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.66032999999999997</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>26.695628756121344</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.66476599999999997</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>26.505845332263739</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.66539899999999996</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>26.478925270451718</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.66793400000000003</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>26.371517353255143</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.66920199999999996</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>26.318031027717957</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.671736</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>26.21161615955625</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.67237000000000002</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>26.185089604372806</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.67363799999999996</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>26.13215371897963</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.675539</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>26.053083093690255</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.68314299999999994</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>25.740251731760644</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.68504399999999999</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>25.662894799234472</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.68567800000000001</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>25.637170351762606</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.68631200000000003</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>25.611483156823134</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.68694599999999995</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>25.58583312917721</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.68757900000000005</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>25.560260553666438</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.68884699999999999</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>25.509145454981777</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.68947999999999998</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>25.483683386861621</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.69518400000000002</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>25.255885408209771</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.69835199999999997</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>25.130629025968659</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.70088700000000004</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>25.031040861258461</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.70152099999999995</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>25.006222367789249</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.70595699999999995</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>24.833551584958954</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.71102699999999996</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>24.638278458759821</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.7218</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>24.230532301816289</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.72813700000000003</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>23.995129815459215</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.74144500000000002</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>23.511127217968429</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.74968299999999999</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>23.218328522704859</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.75348499999999996</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>23.084903585320731</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.75411899999999998</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>23.062757833615443</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.75475300000000001</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>23.040641482931747</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.75538700000000003</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>23.018554471642126</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.759189</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>22.886714180600507</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.76045600000000002</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>22.843010606871609</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.76299099999999997</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>22.755913685330917</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.76425900000000002</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>22.712519565353631</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.76615999999999995</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>22.647675553779997</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.76742699999999997</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>22.60459878105403</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.76806099999999999</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>22.583085617575264</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.76869500000000002</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>22.561600539751261</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.76932800000000001</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>22.5401773115887</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.76996200000000004</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>22.518748187519847</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.77059599999999995</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>22.497346976039594</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.77313100000000001</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>22.41205366942696</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.77376400000000001</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>22.390824635090993</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.77503200000000005</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>22.348382104525221</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.77566500000000005</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>22.327235439966493</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.77629899999999996</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>22.306082748791042</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.77693299999999998</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>22.284957403730736</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.77756700000000001</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>22.263859348980994</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.78327000000000002</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>22.07529440880991</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.78707199999999999</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>21.95078899896972</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.79087499999999999</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>21.827201304200216</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.79150799999999999</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>21.806721913113002</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.801014</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>21.502269284453732</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.80164800000000003</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>21.482167963574177</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.80228100000000002</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>21.462123519771737</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.80798499999999995</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>21.282628141603332</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.80861899999999998</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>21.262801519905054</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.80925199999999997</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>21.243030801120952</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.80988599999999999</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>21.223253470074226</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.81052000000000002</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>21.203500731201792</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.81368799999999997</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>21.105166122714095</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.81432199999999999</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>21.085559851476802</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.81622300000000003</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>21.026917183135218</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.81685700000000006</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>21.007407619271994</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.81749000000000005</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>20.987952839358954</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.81812399999999996</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>20.968491328105635</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.81939200000000001</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>20.929640184445681</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.82319399999999998</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>20.813719199014976</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.828264</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>20.660456697688105</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.83079800000000004</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>20.584414249890344</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.83333299999999999</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>20.508710496762461</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.83713599999999999</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>20.395825386572803</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.83776899999999999</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>20.377115233467642</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.83903700000000003</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>20.339703493441277</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.84474000000000005</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>20.172547013040656</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.84600799999999998</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>20.135625889652594</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.84790900000000002</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>20.080438359973492</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.85107699999999997</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>19.988906002557293</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.85551299999999997</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>19.861647321924266</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.85614699999999999</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>19.843545304832283</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.85804800000000003</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>19.789395844101911</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.85868199999999995</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>19.771379098478498</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.86121700000000001</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>19.699552261233784</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.86185</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>19.681669459101329</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.86501899999999998</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>19.592456868632638</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.86818799999999996</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>19.503764888168462</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.86882099999999995</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>19.486110842255933</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.86945499999999998</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>19.468449498740355</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.870089</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>19.450808725499542</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.87325699999999995</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>19.362967388627574</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.874525</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>19.327951284626465</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.87515799999999999</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>19.3105012085882</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.87705999999999995</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>19.25818948562803</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>0.87896099999999999</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>19.206086232954611</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>0.88022800000000001</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>19.171459853818526</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>0.88086200000000003</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>19.154162913263498</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>0.88276299999999996</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>19.102418547887574</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>0.88402999999999998</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>19.068030280155675</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>0.88466400000000001</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>19.050852165433881</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>0.88593200000000005</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>19.016554968564371</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>0.88719899999999996</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>18.982363200497424</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>0.88846599999999998</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>18.948249499681104</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>0.88973400000000002</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>18.914186752468801</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>0.89036800000000005</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>18.897184507194645</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>0.89100100000000004</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>18.880228405885219</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>0.89163499999999996</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>18.86326483999855</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>0.89226899999999998</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>18.846320576970875</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>0.89480400000000004</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>18.778762451637419</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>0.89543700000000004</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>18.761940714453054</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>0.89733799999999997</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>18.711536645322354</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>0.89924000000000004</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>18.661276966012956</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>0.90114099999999997</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>18.611213614282534</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>0.90304200000000001</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>18.56131921615507</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>0.90557699999999997</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>18.495045922810419</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>0.90620999999999996</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>18.47854358771923</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>0.90937900000000005</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>18.396204659494643</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>0.91064599999999996</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>18.36341329888706</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>0.91444899999999996</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>18.265425343063747</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>0.91951799999999995</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>18.135829514253814</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>0.92142000000000002</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>18.087497683384612</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>0.92268700000000003</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>18.055390644379621</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>0.92395400000000005</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>18.023354300408684</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>0.93155900000000003</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>17.832532397710985</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>0.935361</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>17.738069336610643</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>0.93599500000000002</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>17.722377206955983</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>0.93789599999999995</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>17.675427783424297</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>0.94550100000000004</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>17.489124857133937</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>0.94613400000000003</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>17.473726594984292</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>0.94740199999999997</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>17.442931197121744</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>0.94866899999999998</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>17.412226225731978</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>0.95310499999999998</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>17.305240208994306</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>0.95437300000000003</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>17.274806095999793</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>0.96007600000000004</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>17.138725027977713</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>0.96197699999999997</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>17.093653438643948</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>0.96387800000000001</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>17.048725026927912</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>0.96514599999999995</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>17.018836244007069</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>0.96704699999999999</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>16.974144922621051</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>0.97021500000000005</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>16.899980775589086</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>0.97211700000000001</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>16.855641338112584</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>0.97275</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>16.84091582429101</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>0.97338400000000003</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>16.826182516318546</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>0.97401800000000005</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>16.811464663862274</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>0.97465100000000005</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>16.796785419174334</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>0.976553</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>16.75277040410726</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>0.97782000000000002</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>16.723526801732881</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>0.97845400000000005</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>16.708916377487526</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>0.97908700000000004</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>16.694344214804254</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>0.97972099999999995</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>16.679764247032665</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>0.98035499999999998</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>16.665199481950594</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>0.980989</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>16.650649894575672</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>0.98162199999999999</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>16.63613837303911</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>0.98352300000000004</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>16.592648507799247</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>0.98415699999999995</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>16.578174388734816</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>0.98479099999999997</v>
       </c>
@@ -68526,7 +68526,7 @@
         <v>16.563715298734401</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>0.985425</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>16.549271213205138</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>0.98669200000000001</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>16.520450680953147</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>0.98732600000000004</v>
       </c>
@@ -69045,7 +69045,7 @@
         <v>16.506051438298449</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>0.98795900000000003</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>16.491689778832999</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>0.98859300000000006</v>
       </c>
@@ -69391,7 +69391,7 @@
         <v>16.477320301778171</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>0.98922699999999997</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>16.46296568286413</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>0.98986099999999999</v>
       </c>
@@ -69737,7 +69737,7 @@
         <v>16.448625897879836</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>0.99049399999999999</v>
       </c>
@@ -69910,7 +69910,7 @@
         <v>16.43432350561779</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>0.99112800000000001</v>
       </c>
@@ -70083,7 +70083,7 @@
         <v>16.420013292773277</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>0.99176200000000003</v>
       </c>
@@ -70256,7 +70256,7 @@
         <v>16.405717841586444</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>0.99239500000000003</v>
       </c>
@@ -70429,7 +70429,7 @@
         <v>16.391459641253959</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>0.99302900000000005</v>
       </c>
@@ -70602,7 +70602,7 @@
         <v>16.377193618258275</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>0.99366299999999996</v>
       </c>
@@ -70775,7 +70775,7 @@
         <v>16.362942285129186</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>0.99429699999999999</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>16.348705618030003</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>0.99492999999999998</v>
       </c>
@@ -71121,7 +71121,7 @@
         <v>16.334506013875938</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>0.995564</v>
       </c>
@@ -71294,7 +71294,7 @@
         <v>16.320298584498971</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>0.99619800000000003</v>
       </c>
@@ -71467,7 +71467,7 @@
         <v>16.306105749995922</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>0.99683100000000002</v>
       </c>
@@ -71640,7 +71640,7 @@
         <v>16.291949838470948</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>0.99746500000000005</v>
       </c>
@@ -71813,7 +71813,7 @@
         <v>16.277786099962491</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>0.99809899999999996</v>
       </c>
@@ -71986,7 +71986,7 @@
         <v>16.26363688564355</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>0.99873299999999998</v>
       </c>
